--- a/docss/trend/luxembourg/E_ataxy.xlsx
+++ b/docss/trend/luxembourg/E_ataxy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\luxembourg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\luxembourg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1693,15 +1693,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="B2:D14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -1714,8 +1714,11 @@
       <c r="D1" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1729,12 +1732,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>0.16923338174819946</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -1743,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -1757,21 +1760,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5" s="9">
-        <v>0.1240079402923584</v>
+        <v>0.124</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
       </c>
       <c r="D5" s="9">
-        <v>0.1805054247379303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -1813,26 +1816,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9" s="9">
-        <v>0.23499685525894165</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C9" s="9">
-        <v>0.30646646022796631</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10" s="9">
-        <v>9.8619326949119568E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="C10" s="9">
         <v>0</v>
@@ -1841,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -1883,21 +1886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14" s="9">
-        <v>0.11254924535751343</v>
+        <v>0.113</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>
       </c>
       <c r="D14" s="9">
-        <v>0.15581178665161133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" s="4"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
